--- a/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
+++ b/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAVE CARD\TOPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,11 +322,23 @@
   <si>
     <t>CALAMITY 02/11-14/2020</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2/8-11/2023</t>
+  </si>
+  <si>
+    <t>MAHOGANY MARKET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -557,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,6 +761,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,7 +1216,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,7 +1259,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1323,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1383,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1449,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1512,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1610,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1669,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1734,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1777,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1852,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2038,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2104,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2162,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2228,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2284,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2359,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2402,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2468,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2524,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2622,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2685,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K353" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K401" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3111,12 +3129,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K353"/>
+  <dimension ref="A2:K401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A340" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A344" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3200,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>96</v>
+      </c>
       <c r="G4" s="60"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
@@ -3273,7 +3293,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>266.25</v>
+        <v>266</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3283,7 +3303,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>257.25</v>
+        <v>261</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10342,7 +10362,9 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="38"/>
+      <c r="A353" s="51" t="s">
+        <v>93</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="37"/>
@@ -10353,6 +10375,792 @@
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="38">
+        <v>44927</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="37"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="37"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="37">
+        <v>4</v>
+      </c>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="37"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="37"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="37"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="38"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="37"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="37"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="38"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="37"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="37"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="38"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="37"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="37"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="38"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="37"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="37"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="38"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="37"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="38"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="37"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="38"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="37"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="37"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="38"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="37"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="38"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="37"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="37"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="38"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="37"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="38"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="37"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="37"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="38"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="37"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="37"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="38"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="37"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="37"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="38"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="37"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="37"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="38"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="37"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="37"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="38"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="37"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="37"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="38"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="37"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="37"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="38"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="37"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="38"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="37"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="37"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="38"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="37"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="37"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="38"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="37"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="37"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="38"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="37"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H378" s="37"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="38"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="37"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="37"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="38"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="37"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="37"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="38"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="37"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="37"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="38"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="37"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="37"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="38"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="37"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="37"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="38"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="37"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="37"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="38"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="37"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="37"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="38"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="37"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="37"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="38"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="37"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="37"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="38"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="37"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="37"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="38"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="37"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="38"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="37"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="38"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="37"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="38"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="37"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="37"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="38"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="37"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="37"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="38"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="37"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="37"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="20"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="38"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="37"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H395" s="37"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="38"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="37"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H396" s="37"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="20"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="38"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="37"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H397" s="37"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="11"/>
+      <c r="K397" s="20"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="38"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="37"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H398" s="37"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="11"/>
+      <c r="K398" s="20"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="38"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="37"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H399" s="37"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="20"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="38"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="37"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H400" s="37"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="20"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="66"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="39"/>
+      <c r="D401" s="40"/>
+      <c r="E401" s="67"/>
+      <c r="F401" s="15"/>
+      <c r="G401" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H401" s="40"/>
+      <c r="I401" s="67"/>
+      <c r="J401" s="12"/>
+      <c r="K401" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
+++ b/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>MAHOGANY MARKET</t>
+  </si>
+  <si>
+    <t>12/14-16/2022</t>
   </si>
 </sst>
 </file>
@@ -726,6 +729,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,12 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,7 +1219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2625,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2688,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2754,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K401" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K402" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K402"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3129,12 +3133,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K401"/>
+  <dimension ref="A2:K402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A344" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E350" sqref="E350"/>
+      <pane ySplit="4050" topLeftCell="A343" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,60 +3160,60 @@
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3235,18 +3239,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3293,7 +3297,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7685,7 +7689,9 @@
       <c r="C222" s="13">
         <v>1.25</v>
       </c>
-      <c r="D222" s="37"/>
+      <c r="D222" s="37">
+        <v>5</v>
+      </c>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
       <c r="G222" s="39">
@@ -9819,7 +9825,9 @@
       <c r="C326" s="13">
         <v>1.25</v>
       </c>
-      <c r="D326" s="37"/>
+      <c r="D326" s="37">
+        <v>5</v>
+      </c>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
       <c r="G326" s="39">
@@ -10083,7 +10091,9 @@
       <c r="C339" s="13">
         <v>1.25</v>
       </c>
-      <c r="D339" s="37"/>
+      <c r="D339" s="37">
+        <v>5</v>
+      </c>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
       <c r="G339" s="39">
@@ -10342,13 +10352,13 @@
         <v>44896</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
       </c>
       <c r="D352" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
@@ -10362,35 +10372,37 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B353" s="20"/>
+      <c r="A353" s="38"/>
+      <c r="B353" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C353" s="13"/>
-      <c r="D353" s="37"/>
+      <c r="D353" s="37">
+        <v>3</v>
+      </c>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13"/>
+      <c r="G353" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H353" s="37"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="20"/>
+      <c r="K353" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="38">
-        <v>44927</v>
+      <c r="A354" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C354" s="13"/>
       <c r="D354" s="37"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G354" s="13"/>
       <c r="H354" s="37"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
@@ -10398,17 +10410,13 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
-        <v>44958</v>
-      </c>
-      <c r="B355" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B355" s="20"/>
       <c r="C355" s="13">
         <v>1.25</v>
       </c>
-      <c r="D355" s="37">
-        <v>4</v>
-      </c>
+      <c r="D355" s="37"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
       <c r="G355" s="13">
@@ -10418,19 +10426,21 @@
       <c r="H355" s="37"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B356" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B356" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C356" s="13">
         <v>1.25</v>
       </c>
-      <c r="D356" s="37"/>
+      <c r="D356" s="37">
+        <v>4</v>
+      </c>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
       <c r="G356" s="13">
@@ -10440,18 +10450,24 @@
       <c r="H356" s="37"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
+      <c r="K356" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="38"/>
+      <c r="A357" s="38">
+        <v>44986</v>
+      </c>
       <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="37"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="37"/>
       <c r="I357" s="9"/>
@@ -11147,20 +11163,36 @@
       <c r="K400" s="20"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="66"/>
-      <c r="B401" s="15"/>
-      <c r="C401" s="39"/>
-      <c r="D401" s="40"/>
-      <c r="E401" s="67"/>
-      <c r="F401" s="15"/>
-      <c r="G401" s="39" t="str">
+      <c r="A401" s="38"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="13"/>
+      <c r="D401" s="37"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H401" s="40"/>
-      <c r="I401" s="67"/>
-      <c r="J401" s="12"/>
-      <c r="K401" s="15"/>
+      <c r="H401" s="37"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="11"/>
+      <c r="K401" s="20"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="54"/>
+      <c r="B402" s="15"/>
+      <c r="C402" s="39"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="55"/>
+      <c r="F402" s="15"/>
+      <c r="G402" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H402" s="40"/>
+      <c r="I402" s="55"/>
+      <c r="J402" s="12"/>
+      <c r="K402" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11226,17 +11258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -11311,12 +11343,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">

--- a/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
+++ b/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC716C-2518-470E-B1E1-105D47AC05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,18 +330,46 @@
   <si>
     <t>12/14-16/2022</t>
   </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COMPULSORY RETIREMENT EFFECTIVE DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVEMBER 06, 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL VL = 259.958</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 269.958</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +404,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,16 +752,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -770,6 +790,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,7 +1257,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1300,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1364,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1424,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1490,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1553,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1651,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1710,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1775,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1818,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1893,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2079,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2145,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2203,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2269,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2325,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2400,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2443,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2509,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2565,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2663,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2726,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,26 +2792,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K402" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K379" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K379" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2785,13 +2823,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2800,14 +2838,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3111,7 +3149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3121,7 +3159,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3129,93 +3167,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K402"/>
+  <dimension ref="A2:K379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A343" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="2196" topLeftCell="A370" activePane="bottomLeft"/>
+      <selection activeCell="K8" sqref="E8:K8"/>
+      <selection pane="bottomLeft" activeCell="U385" sqref="U385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3223,7 +3263,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3236,24 +3276,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="49" t="s">
         <v>23</v>
@@ -3297,7 +3337,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>251</v>
+        <v>259.95800000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3307,12 +3347,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261</v>
+        <v>269.95800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="10" t="s">
         <v>43</v>
@@ -3334,7 +3374,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -3352,7 +3392,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>45</v>
       </c>
@@ -3376,7 +3416,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>46</v>
       </c>
@@ -3394,7 +3434,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>35431</v>
       </c>
@@ -3414,7 +3454,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>35462</v>
       </c>
@@ -3434,7 +3474,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>35490</v>
       </c>
@@ -3454,7 +3494,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>35521</v>
       </c>
@@ -3474,7 +3514,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>35551</v>
       </c>
@@ -3494,7 +3534,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>35582</v>
       </c>
@@ -3514,7 +3554,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>35612</v>
       </c>
@@ -3534,7 +3574,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>35643</v>
       </c>
@@ -3554,7 +3594,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>35674</v>
       </c>
@@ -3574,7 +3614,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>35704</v>
       </c>
@@ -3594,7 +3634,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>35735</v>
       </c>
@@ -3614,7 +3654,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>35765</v>
       </c>
@@ -3638,7 +3678,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>61</v>
       </c>
@@ -3660,7 +3700,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>35796</v>
       </c>
@@ -3680,7 +3720,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>35827</v>
       </c>
@@ -3700,7 +3740,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>35855</v>
       </c>
@@ -3720,7 +3760,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>35886</v>
       </c>
@@ -3740,7 +3780,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>35916</v>
       </c>
@@ -3760,7 +3800,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>35947</v>
       </c>
@@ -3780,7 +3820,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>35977</v>
       </c>
@@ -3800,7 +3840,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>36008</v>
       </c>
@@ -3820,7 +3860,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>36039</v>
       </c>
@@ -3840,7 +3880,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>36069</v>
       </c>
@@ -3860,7 +3900,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>36100</v>
       </c>
@@ -3880,7 +3920,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>36130</v>
       </c>
@@ -3904,7 +3944,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="51" t="s">
         <v>71</v>
       </c>
@@ -3926,7 +3966,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>36161</v>
       </c>
@@ -3946,7 +3986,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>36192</v>
       </c>
@@ -3966,7 +4006,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>36220</v>
       </c>
@@ -3986,7 +4026,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>36251</v>
       </c>
@@ -4006,7 +4046,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>36281</v>
       </c>
@@ -4026,7 +4066,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>36312</v>
       </c>
@@ -4052,7 +4092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>36342</v>
       </c>
@@ -4072,7 +4112,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>36373</v>
       </c>
@@ -4092,7 +4132,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>36404</v>
       </c>
@@ -4112,7 +4152,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>36434</v>
       </c>
@@ -4132,7 +4172,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>36465</v>
       </c>
@@ -4152,7 +4192,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>36495</v>
       </c>
@@ -4176,7 +4216,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
         <v>70</v>
       </c>
@@ -4198,7 +4238,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>36526</v>
       </c>
@@ -4218,7 +4258,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>36557</v>
       </c>
@@ -4238,7 +4278,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>36586</v>
       </c>
@@ -4258,7 +4298,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>36617</v>
       </c>
@@ -4278,7 +4318,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>36647</v>
       </c>
@@ -4298,7 +4338,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>36678</v>
       </c>
@@ -4318,7 +4358,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>36708</v>
       </c>
@@ -4338,7 +4378,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>36739</v>
       </c>
@@ -4358,7 +4398,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>36770</v>
       </c>
@@ -4378,7 +4418,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>36800</v>
       </c>
@@ -4398,7 +4438,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>36831</v>
       </c>
@@ -4418,7 +4458,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>36861</v>
       </c>
@@ -4442,7 +4482,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="51" t="s">
         <v>69</v>
       </c>
@@ -4464,7 +4504,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>36892</v>
       </c>
@@ -4484,7 +4524,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>36923</v>
       </c>
@@ -4504,7 +4544,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>36951</v>
       </c>
@@ -4524,7 +4564,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>36982</v>
       </c>
@@ -4544,7 +4584,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>37012</v>
       </c>
@@ -4564,7 +4604,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>37043</v>
       </c>
@@ -4584,7 +4624,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>37073</v>
       </c>
@@ -4604,7 +4644,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>37104</v>
       </c>
@@ -4624,7 +4664,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>37135</v>
       </c>
@@ -4644,7 +4684,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>37165</v>
       </c>
@@ -4664,7 +4704,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>37196</v>
       </c>
@@ -4684,7 +4724,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>37226</v>
       </c>
@@ -4708,7 +4748,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="51" t="s">
         <v>68</v>
       </c>
@@ -4730,7 +4770,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>37257</v>
       </c>
@@ -4750,7 +4790,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>37288</v>
       </c>
@@ -4776,7 +4816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>37316</v>
       </c>
@@ -4796,7 +4836,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>37347</v>
       </c>
@@ -4816,7 +4856,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>37377</v>
       </c>
@@ -4836,7 +4876,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>37408</v>
       </c>
@@ -4856,7 +4896,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>37438</v>
       </c>
@@ -4876,7 +4916,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>37469</v>
       </c>
@@ -4896,7 +4936,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>37500</v>
       </c>
@@ -4916,7 +4956,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>37530</v>
       </c>
@@ -4936,7 +4976,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38">
         <v>37561</v>
       </c>
@@ -4956,7 +4996,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>37591</v>
       </c>
@@ -4980,7 +5020,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
         <v>67</v>
       </c>
@@ -5002,7 +5042,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>37622</v>
       </c>
@@ -5022,7 +5062,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>37653</v>
       </c>
@@ -5042,7 +5082,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>37681</v>
       </c>
@@ -5062,7 +5102,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>37712</v>
       </c>
@@ -5082,7 +5122,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>37742</v>
       </c>
@@ -5102,7 +5142,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>37773</v>
       </c>
@@ -5122,7 +5162,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>37803</v>
       </c>
@@ -5142,7 +5182,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <v>37834</v>
       </c>
@@ -5162,7 +5202,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>37865</v>
       </c>
@@ -5182,7 +5222,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38">
         <v>37895</v>
       </c>
@@ -5202,7 +5242,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>37926</v>
       </c>
@@ -5222,7 +5262,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>37956</v>
       </c>
@@ -5246,7 +5286,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="51" t="s">
         <v>66</v>
       </c>
@@ -5268,7 +5308,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>37987</v>
       </c>
@@ -5288,7 +5328,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <v>38018</v>
       </c>
@@ -5308,7 +5348,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>38047</v>
       </c>
@@ -5328,7 +5368,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>38078</v>
       </c>
@@ -5348,7 +5388,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>38108</v>
       </c>
@@ -5368,7 +5408,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>38139</v>
       </c>
@@ -5388,7 +5428,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>38169</v>
       </c>
@@ -5408,7 +5448,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>38200</v>
       </c>
@@ -5428,7 +5468,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38">
         <v>38231</v>
       </c>
@@ -5448,7 +5488,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <v>38261</v>
       </c>
@@ -5468,7 +5508,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>38292</v>
       </c>
@@ -5488,7 +5528,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38">
         <v>38322</v>
       </c>
@@ -5512,7 +5552,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="51" t="s">
         <v>65</v>
       </c>
@@ -5534,7 +5574,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>38353</v>
       </c>
@@ -5554,7 +5594,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>38384</v>
       </c>
@@ -5574,7 +5614,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>38412</v>
       </c>
@@ -5594,7 +5634,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>38443</v>
       </c>
@@ -5614,7 +5654,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38">
         <v>38473</v>
       </c>
@@ -5634,7 +5674,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38">
         <v>38504</v>
       </c>
@@ -5654,7 +5694,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38">
         <v>38534</v>
       </c>
@@ -5674,7 +5714,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>38565</v>
       </c>
@@ -5694,7 +5734,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>38596</v>
       </c>
@@ -5714,7 +5754,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>38626</v>
       </c>
@@ -5734,7 +5774,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>38657</v>
       </c>
@@ -5754,7 +5794,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>38687</v>
       </c>
@@ -5778,7 +5818,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="51" t="s">
         <v>64</v>
       </c>
@@ -5789,7 +5829,7 @@
         <v>32</v>
       </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="53"/>
+      <c r="G130" s="52"/>
       <c r="H130" s="37"/>
       <c r="I130" s="32" t="s">
         <v>32</v>
@@ -5797,7 +5837,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <v>38718</v>
       </c>
@@ -5817,7 +5857,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38">
         <v>38749</v>
       </c>
@@ -5837,7 +5877,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38">
         <v>38777</v>
       </c>
@@ -5857,7 +5897,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>38808</v>
       </c>
@@ -5877,7 +5917,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38">
         <v>38838</v>
       </c>
@@ -5897,7 +5937,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38">
         <v>38869</v>
       </c>
@@ -5917,7 +5957,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38">
         <v>38899</v>
       </c>
@@ -5937,7 +5977,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38">
         <v>38930</v>
       </c>
@@ -5957,7 +5997,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>38961</v>
       </c>
@@ -5977,7 +6017,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38">
         <v>38991</v>
       </c>
@@ -5997,7 +6037,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38">
         <v>39022</v>
       </c>
@@ -6017,7 +6057,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <v>39052</v>
       </c>
@@ -6041,7 +6081,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="51" t="s">
         <v>63</v>
       </c>
@@ -6063,7 +6103,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38">
         <v>39083</v>
       </c>
@@ -6083,7 +6123,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38">
         <v>39114</v>
       </c>
@@ -6103,7 +6143,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38">
         <v>39142</v>
       </c>
@@ -6123,7 +6163,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38">
         <v>39173</v>
       </c>
@@ -6143,7 +6183,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38">
         <v>39203</v>
       </c>
@@ -6163,7 +6203,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38">
         <v>39234</v>
       </c>
@@ -6183,7 +6223,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38">
         <v>39264</v>
       </c>
@@ -6203,7 +6243,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38">
         <v>39295</v>
       </c>
@@ -6223,7 +6263,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38">
         <v>39326</v>
       </c>
@@ -6243,7 +6283,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38">
         <v>39356</v>
       </c>
@@ -6269,7 +6309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38">
         <v>39387</v>
       </c>
@@ -6293,7 +6333,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38">
         <v>39417</v>
       </c>
@@ -6317,7 +6357,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="51" t="s">
         <v>62</v>
       </c>
@@ -6339,7 +6379,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38">
         <v>39448</v>
       </c>
@@ -6359,7 +6399,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38">
         <v>39479</v>
       </c>
@@ -6379,7 +6419,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38">
         <v>39508</v>
       </c>
@@ -6399,7 +6439,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38">
         <v>39539</v>
       </c>
@@ -6419,7 +6459,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38">
         <v>39569</v>
       </c>
@@ -6439,7 +6479,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38">
         <v>39600</v>
       </c>
@@ -6459,7 +6499,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>39630</v>
       </c>
@@ -6479,7 +6519,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <v>39661</v>
       </c>
@@ -6499,7 +6539,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38">
         <v>39692</v>
       </c>
@@ -6519,7 +6559,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38">
         <v>39722</v>
       </c>
@@ -6539,7 +6579,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38">
         <v>39753</v>
       </c>
@@ -6559,7 +6599,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38">
         <v>39783</v>
       </c>
@@ -6583,7 +6623,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="51" t="s">
         <v>60</v>
       </c>
@@ -6605,7 +6645,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38">
         <v>39814</v>
       </c>
@@ -6625,7 +6665,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38">
         <v>39845</v>
       </c>
@@ -6645,7 +6685,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38">
         <v>39873</v>
       </c>
@@ -6665,7 +6705,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38">
         <v>39904</v>
       </c>
@@ -6685,7 +6725,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38">
         <v>39934</v>
       </c>
@@ -6705,7 +6745,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>39965</v>
       </c>
@@ -6725,7 +6765,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38">
         <v>39995</v>
       </c>
@@ -6745,7 +6785,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38">
         <v>40026</v>
       </c>
@@ -6765,7 +6805,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <v>40057</v>
       </c>
@@ -6785,7 +6825,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38">
         <v>40087</v>
       </c>
@@ -6805,7 +6845,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38">
         <v>40118</v>
       </c>
@@ -6825,7 +6865,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38">
         <v>40148</v>
       </c>
@@ -6849,7 +6889,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="51" t="s">
         <v>59</v>
       </c>
@@ -6871,7 +6911,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <v>40179</v>
       </c>
@@ -6891,7 +6931,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38">
         <v>40210</v>
       </c>
@@ -6911,7 +6951,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38">
         <v>40238</v>
       </c>
@@ -6931,7 +6971,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38">
         <v>40269</v>
       </c>
@@ -6951,7 +6991,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38">
         <v>40299</v>
       </c>
@@ -6971,7 +7011,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38">
         <v>40330</v>
       </c>
@@ -6991,7 +7031,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38">
         <v>40360</v>
       </c>
@@ -7011,7 +7051,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38">
         <v>40391</v>
       </c>
@@ -7031,7 +7071,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38">
         <v>40422</v>
       </c>
@@ -7051,7 +7091,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38">
         <v>40452</v>
       </c>
@@ -7071,7 +7111,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38">
         <v>40483</v>
       </c>
@@ -7091,7 +7131,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38">
         <v>40513</v>
       </c>
@@ -7115,7 +7155,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="51" t="s">
         <v>58</v>
       </c>
@@ -7137,7 +7177,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38">
         <v>40544</v>
       </c>
@@ -7157,7 +7197,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38">
         <v>40575</v>
       </c>
@@ -7177,7 +7217,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38">
         <v>40603</v>
       </c>
@@ -7197,7 +7237,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38">
         <v>40634</v>
       </c>
@@ -7217,7 +7257,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38">
         <v>40664</v>
       </c>
@@ -7237,7 +7277,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38">
         <v>40695</v>
       </c>
@@ -7257,7 +7297,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38">
         <v>40725</v>
       </c>
@@ -7267,7 +7307,7 @@
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
-      <c r="D202" s="37"/>
+      <c r="D202" s="11"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
       <c r="G202" s="39">
@@ -7283,13 +7323,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C203" s="13"/>
-      <c r="D203" s="37"/>
+      <c r="D203" s="11"/>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
       <c r="G203" s="13" t="str">
@@ -7305,7 +7345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38">
         <v>40756</v>
       </c>
@@ -7325,7 +7365,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38">
         <v>40787</v>
       </c>
@@ -7345,7 +7385,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38">
         <v>40817</v>
       </c>
@@ -7365,7 +7405,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38">
         <v>40848</v>
       </c>
@@ -7385,7 +7425,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38">
         <v>40878</v>
       </c>
@@ -7409,7 +7449,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="51" t="s">
         <v>57</v>
       </c>
@@ -7431,7 +7471,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38">
         <v>40909</v>
       </c>
@@ -7451,7 +7491,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38">
         <v>40940</v>
       </c>
@@ -7471,7 +7511,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38">
         <v>40969</v>
       </c>
@@ -7491,7 +7531,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38">
         <v>41000</v>
       </c>
@@ -7511,7 +7551,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38">
         <v>41030</v>
       </c>
@@ -7531,7 +7571,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38">
         <v>41061</v>
       </c>
@@ -7551,7 +7591,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38">
         <v>41091</v>
       </c>
@@ -7571,7 +7611,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38">
         <v>41122</v>
       </c>
@@ -7591,7 +7631,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38">
         <v>41153</v>
       </c>
@@ -7611,7 +7651,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38">
         <v>41183</v>
       </c>
@@ -7631,7 +7671,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38">
         <v>41214</v>
       </c>
@@ -7641,10 +7681,10 @@
       <c r="C220" s="13">
         <v>1.25</v>
       </c>
-      <c r="D220" s="37"/>
+      <c r="D220" s="11"/>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="39">
+      <c r="G220" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7657,7 +7697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
         <v>87</v>
@@ -7679,7 +7719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38">
         <v>41244</v>
       </c>
@@ -7703,7 +7743,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="51" t="s">
         <v>56</v>
       </c>
@@ -7725,7 +7765,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38">
         <v>41275</v>
       </c>
@@ -7745,7 +7785,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38">
         <v>41306</v>
       </c>
@@ -7765,7 +7805,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38">
         <v>41334</v>
       </c>
@@ -7785,7 +7825,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38">
         <v>41365</v>
       </c>
@@ -7805,7 +7845,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38">
         <v>41395</v>
       </c>
@@ -7825,7 +7865,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38">
         <v>41426</v>
       </c>
@@ -7845,7 +7885,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38">
         <v>41456</v>
       </c>
@@ -7865,7 +7905,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <v>41487</v>
       </c>
@@ -7885,7 +7925,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38">
         <v>41518</v>
       </c>
@@ -7905,7 +7945,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38">
         <v>41548</v>
       </c>
@@ -7925,7 +7965,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38">
         <v>41579</v>
       </c>
@@ -7945,7 +7985,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38">
         <v>41609</v>
       </c>
@@ -7969,7 +8009,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="51" t="s">
         <v>55</v>
       </c>
@@ -7991,7 +8031,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38">
         <v>41640</v>
       </c>
@@ -8011,7 +8051,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <v>41671</v>
       </c>
@@ -8031,7 +8071,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38">
         <v>41699</v>
       </c>
@@ -8051,7 +8091,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38">
         <v>41730</v>
       </c>
@@ -8071,7 +8111,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38">
         <v>41760</v>
       </c>
@@ -8091,7 +8131,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38">
         <v>41791</v>
       </c>
@@ -8111,7 +8151,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38">
         <v>41821</v>
       </c>
@@ -8131,7 +8171,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <v>41852</v>
       </c>
@@ -8151,7 +8191,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38">
         <v>41883</v>
       </c>
@@ -8171,7 +8211,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38">
         <v>41913</v>
       </c>
@@ -8191,7 +8231,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38">
         <v>41944</v>
       </c>
@@ -8211,7 +8251,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38">
         <v>41974</v>
       </c>
@@ -8235,7 +8275,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="51" t="s">
         <v>54</v>
       </c>
@@ -8257,7 +8297,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38">
         <v>42005</v>
       </c>
@@ -8277,7 +8317,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38">
         <v>42036</v>
       </c>
@@ -8297,7 +8337,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38">
         <v>42064</v>
       </c>
@@ -8317,7 +8357,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38">
         <v>42095</v>
       </c>
@@ -8337,7 +8377,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38">
         <v>42125</v>
       </c>
@@ -8357,7 +8397,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38">
         <v>42156</v>
       </c>
@@ -8377,7 +8417,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <v>42186</v>
       </c>
@@ -8397,7 +8437,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38">
         <v>42217</v>
       </c>
@@ -8407,10 +8447,10 @@
       <c r="C257" s="13">
         <v>1.25</v>
       </c>
-      <c r="D257" s="37"/>
+      <c r="D257" s="11"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="39">
+      <c r="G257" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8421,7 +8461,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38">
         <v>42248</v>
       </c>
@@ -8441,7 +8481,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38">
         <v>42278</v>
       </c>
@@ -8461,7 +8501,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38">
         <v>42309</v>
       </c>
@@ -8481,7 +8521,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38">
         <v>42339</v>
       </c>
@@ -8505,7 +8545,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="51" t="s">
         <v>53</v>
       </c>
@@ -8527,7 +8567,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38">
         <v>42370</v>
       </c>
@@ -8547,7 +8587,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38">
         <v>42401</v>
       </c>
@@ -8567,7 +8607,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38">
         <v>42430</v>
       </c>
@@ -8587,7 +8627,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <v>42461</v>
       </c>
@@ -8607,7 +8647,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38">
         <v>42491</v>
       </c>
@@ -8627,7 +8667,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38">
         <v>42522</v>
       </c>
@@ -8647,7 +8687,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38">
         <v>42552</v>
       </c>
@@ -8667,7 +8707,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38">
         <v>42583</v>
       </c>
@@ -8687,7 +8727,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <v>42614</v>
       </c>
@@ -8707,7 +8747,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38">
         <v>42644</v>
       </c>
@@ -8727,7 +8767,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38">
         <v>42675</v>
       </c>
@@ -8747,7 +8787,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38">
         <v>42705</v>
       </c>
@@ -8771,7 +8811,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="51" t="s">
         <v>52</v>
       </c>
@@ -8793,7 +8833,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38">
         <v>42736</v>
       </c>
@@ -8813,7 +8853,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38">
         <v>42767</v>
       </c>
@@ -8833,7 +8873,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38">
         <v>42795</v>
       </c>
@@ -8853,7 +8893,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38">
         <v>42826</v>
       </c>
@@ -8873,7 +8913,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38">
         <v>42856</v>
       </c>
@@ -8893,7 +8933,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38">
         <v>42887</v>
       </c>
@@ -8913,7 +8953,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38">
         <v>42917</v>
       </c>
@@ -8933,7 +8973,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>42948</v>
       </c>
@@ -8953,7 +8993,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38">
         <v>42979</v>
       </c>
@@ -8973,7 +9013,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38">
         <v>43009</v>
       </c>
@@ -8993,7 +9033,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38">
         <v>43040</v>
       </c>
@@ -9013,11 +9053,11 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38">
         <v>43070</v>
       </c>
-      <c r="B287" s="52" t="s">
+      <c r="B287" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C287" s="13">
@@ -9037,11 +9077,11 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B288" s="52"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="13"/>
       <c r="D288" s="37"/>
       <c r="E288" s="32" t="s">
@@ -9059,7 +9099,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38">
         <v>43101</v>
       </c>
@@ -9079,7 +9119,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38">
         <v>43132</v>
       </c>
@@ -9099,7 +9139,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>43160</v>
       </c>
@@ -9119,7 +9159,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38">
         <v>43191</v>
       </c>
@@ -9139,7 +9179,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38">
         <v>43221</v>
       </c>
@@ -9159,7 +9199,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38">
         <v>43252</v>
       </c>
@@ -9179,7 +9219,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>43282</v>
       </c>
@@ -9199,7 +9239,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38">
         <v>43313</v>
       </c>
@@ -9219,7 +9259,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38">
         <v>43344</v>
       </c>
@@ -9239,7 +9279,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>43374</v>
       </c>
@@ -9259,7 +9299,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
         <v>43405</v>
       </c>
@@ -9279,7 +9319,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38">
         <v>43435</v>
       </c>
@@ -9303,7 +9343,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="51" t="s">
         <v>50</v>
       </c>
@@ -9325,7 +9365,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <v>43466</v>
       </c>
@@ -9345,7 +9385,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>43497</v>
       </c>
@@ -9365,7 +9405,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <v>43525</v>
       </c>
@@ -9385,7 +9425,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38">
         <v>43556</v>
       </c>
@@ -9405,7 +9445,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>43586</v>
       </c>
@@ -9425,7 +9465,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38">
         <v>43617</v>
       </c>
@@ -9445,7 +9485,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38">
         <v>43647</v>
       </c>
@@ -9465,7 +9505,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38">
         <v>43678</v>
       </c>
@@ -9485,7 +9525,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38">
         <v>43709</v>
       </c>
@@ -9505,7 +9545,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38">
         <v>43739</v>
       </c>
@@ -9525,7 +9565,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38">
         <v>43770</v>
       </c>
@@ -9545,7 +9585,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38">
         <v>43800</v>
       </c>
@@ -9569,7 +9609,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="51" t="s">
         <v>49</v>
       </c>
@@ -9591,7 +9631,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38">
         <v>43831</v>
       </c>
@@ -9611,7 +9651,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <v>43862</v>
       </c>
@@ -9635,7 +9675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>43891</v>
       </c>
@@ -9655,7 +9695,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38">
         <v>43922</v>
       </c>
@@ -9675,7 +9715,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38">
         <v>43952</v>
       </c>
@@ -9695,7 +9735,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>43983</v>
       </c>
@@ -9715,7 +9755,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <v>44013</v>
       </c>
@@ -9735,7 +9775,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38">
         <v>44044</v>
       </c>
@@ -9755,7 +9795,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38">
         <v>44075</v>
       </c>
@@ -9775,7 +9815,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38">
         <v>44105</v>
       </c>
@@ -9795,7 +9835,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <v>44136</v>
       </c>
@@ -9815,7 +9855,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38">
         <v>44166</v>
       </c>
@@ -9839,7 +9879,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="51" t="s">
         <v>48</v>
       </c>
@@ -9861,7 +9901,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38">
         <v>44197</v>
       </c>
@@ -9881,7 +9921,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>44228</v>
       </c>
@@ -9901,7 +9941,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <v>44256</v>
       </c>
@@ -9921,7 +9961,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38">
         <v>44287</v>
       </c>
@@ -9941,7 +9981,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <v>44317</v>
       </c>
@@ -9961,7 +10001,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38">
         <v>44348</v>
       </c>
@@ -9981,7 +10021,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38">
         <v>44378</v>
       </c>
@@ -10001,7 +10041,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38">
         <v>44409</v>
       </c>
@@ -10021,7 +10061,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38">
         <v>44440</v>
       </c>
@@ -10041,7 +10081,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38">
         <v>44470</v>
       </c>
@@ -10061,7 +10101,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <v>44501</v>
       </c>
@@ -10081,7 +10121,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38">
         <v>44531</v>
       </c>
@@ -10105,7 +10145,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="51" t="s">
         <v>47</v>
       </c>
@@ -10127,7 +10167,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>44562</v>
       </c>
@@ -10147,7 +10187,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38">
         <v>44593</v>
       </c>
@@ -10167,7 +10207,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <v>44621</v>
       </c>
@@ -10187,7 +10227,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38">
         <v>44652</v>
       </c>
@@ -10207,7 +10247,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
         <v>44682</v>
       </c>
@@ -10227,7 +10267,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
         <v>44713</v>
       </c>
@@ -10247,7 +10287,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38">
         <v>44743</v>
       </c>
@@ -10267,7 +10307,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <v>44774</v>
       </c>
@@ -10287,7 +10327,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38">
         <v>44805</v>
       </c>
@@ -10307,7 +10347,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>44835</v>
       </c>
@@ -10327,7 +10367,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38">
         <v>44866</v>
       </c>
@@ -10347,7 +10387,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38">
         <v>44896</v>
       </c>
@@ -10371,7 +10411,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>73</v>
@@ -10393,7 +10433,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="51" t="s">
         <v>93</v>
       </c>
@@ -10408,7 +10448,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38">
         <v>44927</v>
       </c>
@@ -10428,7 +10468,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38">
         <v>44958</v>
       </c>
@@ -10454,7 +10494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
         <v>44986</v>
       </c>
@@ -10474,183 +10514,216 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="38"/>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="38">
+        <v>45017</v>
+      </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="37"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H358" s="37"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="38"/>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="38">
+        <v>45047</v>
+      </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="37"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="37"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="38"/>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="38">
+        <v>45078</v>
+      </c>
       <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="37"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="37"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="38"/>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="38">
+        <v>45108</v>
+      </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H361" s="37"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="38"/>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="38">
+        <v>45139</v>
+      </c>
       <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="37"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H362" s="37"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="38"/>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="38">
+        <v>45170</v>
+      </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="37"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="37"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="38"/>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="38">
+        <v>45200</v>
+      </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="37"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="37"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="38"/>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="38">
+        <v>45235</v>
+      </c>
       <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="D365" s="37"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.20800000000000002</v>
       </c>
       <c r="H365" s="37"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="38"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="37"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H366" s="37"/>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="65"/>
+      <c r="B366" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C366" s="67"/>
+      <c r="D366" s="66"/>
+      <c r="E366" s="68"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="11"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38"/>
-      <c r="B367" s="20"/>
+      <c r="B367" s="11"/>
       <c r="C367" s="13"/>
-      <c r="D367" s="37"/>
+      <c r="D367" s="69" t="s">
+        <v>101</v>
+      </c>
       <c r="E367" s="9"/>
-      <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H367" s="37"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="37"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D368" s="11"/>
       <c r="E368" s="9"/>
-      <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H368" s="37"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F368" s="11"/>
+      <c r="G368" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H368" s="66"/>
+      <c r="I368" s="68"/>
+      <c r="J368" s="66"/>
+      <c r="K368" s="70"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10666,7 +10739,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10682,7 +10755,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10698,7 +10771,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10714,7 +10787,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10730,7 +10803,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="38"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10746,7 +10819,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10762,7 +10835,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10778,7 +10851,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10794,7 +10867,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10810,7 +10883,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10825,374 +10898,6 @@
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="38"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
-      <c r="D380" s="37"/>
-      <c r="E380" s="9"/>
-      <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H380" s="37"/>
-      <c r="I380" s="9"/>
-      <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="38"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
-      <c r="D381" s="37"/>
-      <c r="E381" s="9"/>
-      <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H381" s="37"/>
-      <c r="I381" s="9"/>
-      <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="38"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
-      <c r="D382" s="37"/>
-      <c r="E382" s="9"/>
-      <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H382" s="37"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="38"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="13"/>
-      <c r="D383" s="37"/>
-      <c r="E383" s="9"/>
-      <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H383" s="37"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="38"/>
-      <c r="B384" s="20"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="37"/>
-      <c r="E384" s="9"/>
-      <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H384" s="37"/>
-      <c r="I384" s="9"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="38"/>
-      <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
-      <c r="D385" s="37"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H385" s="37"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="38"/>
-      <c r="B386" s="20"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="37"/>
-      <c r="E386" s="9"/>
-      <c r="F386" s="20"/>
-      <c r="G386" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H386" s="37"/>
-      <c r="I386" s="9"/>
-      <c r="J386" s="11"/>
-      <c r="K386" s="20"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="38"/>
-      <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="37"/>
-      <c r="E387" s="9"/>
-      <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H387" s="37"/>
-      <c r="I387" s="9"/>
-      <c r="J387" s="11"/>
-      <c r="K387" s="20"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="38"/>
-      <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
-      <c r="D388" s="37"/>
-      <c r="E388" s="9"/>
-      <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H388" s="37"/>
-      <c r="I388" s="9"/>
-      <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="38"/>
-      <c r="B389" s="20"/>
-      <c r="C389" s="13"/>
-      <c r="D389" s="37"/>
-      <c r="E389" s="9"/>
-      <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H389" s="37"/>
-      <c r="I389" s="9"/>
-      <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="38"/>
-      <c r="B390" s="20"/>
-      <c r="C390" s="13"/>
-      <c r="D390" s="37"/>
-      <c r="E390" s="9"/>
-      <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H390" s="37"/>
-      <c r="I390" s="9"/>
-      <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="38"/>
-      <c r="B391" s="20"/>
-      <c r="C391" s="13"/>
-      <c r="D391" s="37"/>
-      <c r="E391" s="9"/>
-      <c r="F391" s="20"/>
-      <c r="G391" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H391" s="37"/>
-      <c r="I391" s="9"/>
-      <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="38"/>
-      <c r="B392" s="20"/>
-      <c r="C392" s="13"/>
-      <c r="D392" s="37"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="20"/>
-      <c r="G392" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H392" s="37"/>
-      <c r="I392" s="9"/>
-      <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="38"/>
-      <c r="B393" s="20"/>
-      <c r="C393" s="13"/>
-      <c r="D393" s="37"/>
-      <c r="E393" s="9"/>
-      <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H393" s="37"/>
-      <c r="I393" s="9"/>
-      <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="38"/>
-      <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
-      <c r="D394" s="37"/>
-      <c r="E394" s="9"/>
-      <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H394" s="37"/>
-      <c r="I394" s="9"/>
-      <c r="J394" s="11"/>
-      <c r="K394" s="20"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="38"/>
-      <c r="B395" s="20"/>
-      <c r="C395" s="13"/>
-      <c r="D395" s="37"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="20"/>
-      <c r="G395" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H395" s="37"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="38"/>
-      <c r="B396" s="20"/>
-      <c r="C396" s="13"/>
-      <c r="D396" s="37"/>
-      <c r="E396" s="9"/>
-      <c r="F396" s="20"/>
-      <c r="G396" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H396" s="37"/>
-      <c r="I396" s="9"/>
-      <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="38"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="37"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H397" s="37"/>
-      <c r="I397" s="9"/>
-      <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="38"/>
-      <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
-      <c r="D398" s="37"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H398" s="37"/>
-      <c r="I398" s="9"/>
-      <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="38"/>
-      <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
-      <c r="D399" s="37"/>
-      <c r="E399" s="9"/>
-      <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H399" s="37"/>
-      <c r="I399" s="9"/>
-      <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="38"/>
-      <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
-      <c r="D400" s="37"/>
-      <c r="E400" s="9"/>
-      <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H400" s="37"/>
-      <c r="I400" s="9"/>
-      <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="38"/>
-      <c r="B401" s="20"/>
-      <c r="C401" s="13"/>
-      <c r="D401" s="37"/>
-      <c r="E401" s="9"/>
-      <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H401" s="37"/>
-      <c r="I401" s="9"/>
-      <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="54"/>
-      <c r="B402" s="15"/>
-      <c r="C402" s="39"/>
-      <c r="D402" s="40"/>
-      <c r="E402" s="55"/>
-      <c r="F402" s="15"/>
-      <c r="G402" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H402" s="40"/>
-      <c r="I402" s="55"/>
-      <c r="J402" s="12"/>
-      <c r="K402" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11209,15 +10914,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -11235,42 +10940,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="66" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -11299,7 +11004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11319,17 +11024,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -11343,14 +11048,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -11377,7 +11082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -11403,7 +11108,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -11429,7 +11134,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -11455,7 +11160,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -11481,7 +11186,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -11507,7 +11212,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -11533,7 +11238,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -11559,7 +11264,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -11579,7 +11284,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -11599,7 +11304,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -11619,7 +11324,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -11640,7 +11345,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -11661,7 +11366,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -11682,7 +11387,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -11703,7 +11408,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -11724,7 +11429,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -11745,7 +11450,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -11766,7 +11471,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -11787,7 +11492,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -11808,7 +11513,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -11829,7 +11534,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -11850,7 +11555,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -11871,7 +11576,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -11892,7 +11597,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -11913,7 +11618,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -11934,7 +11639,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -11955,7 +11660,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -11976,7 +11681,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -11997,7 +11702,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -12018,7 +11723,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -12039,7 +11744,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -12048,7 +11753,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -12057,7 +11762,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -12066,7 +11771,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -12075,7 +11780,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -12084,7 +11789,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -12093,7 +11798,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -12102,7 +11807,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -12111,7 +11816,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -12120,7 +11825,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -12129,7 +11834,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -12138,7 +11843,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -12147,7 +11852,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -12156,7 +11861,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -12165,7 +11870,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -12174,7 +11879,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -12183,7 +11888,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -12192,7 +11897,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -12201,7 +11906,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -12210,7 +11915,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -12219,7 +11924,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -12228,7 +11933,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -12237,7 +11942,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -12246,7 +11951,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -12255,7 +11960,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -12264,7 +11969,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -12273,7 +11978,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -12282,7 +11987,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -12291,7 +11996,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -12300,7 +12005,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
+++ b/REGULAR/OJT/NEW DONE/DE LUNA, ERNESTO E..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC716C-2518-470E-B1E1-105D47AC05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229E9DE-5840-43DA-8093-F4F63A7150DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -338,7 +338,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">COMPULSORY RETIREMENT EFFECTIVE DATE: </t>
+      <t>COMPULSORY RETIREMENT EFFECTIVE DATE: APRIL</t>
     </r>
     <r>
       <rPr>
@@ -349,14 +349,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NOVEMBER 06, 2023</t>
+      <t xml:space="preserve"> 01, 2023</t>
     </r>
   </si>
   <si>
-    <t>TOTAL VL = 259.958</t>
+    <t>TOTAL VL = 251.000</t>
   </si>
   <si>
-    <t>TOTAL SL = 269.958</t>
+    <t>TOTAL SL = 261.000</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -755,6 +758,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,24 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2792,8 +2795,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K379" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K379" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K371" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K371" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3171,12 +3174,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K379"/>
+  <dimension ref="A2:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="2196" topLeftCell="A370" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="E8:K8"/>
-      <selection pane="bottomLeft" activeCell="U385" sqref="U385"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="2844" topLeftCell="A349" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H360" sqref="H360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3198,62 +3201,62 @@
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3279,18 +3282,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3337,7 +3340,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>259.95800000000003</v>
+        <v>251</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3347,7 +3350,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269.95800000000003</v>
+        <v>261</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10515,79 +10518,64 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B358" s="20"/>
-      <c r="C358" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D358" s="37"/>
-      <c r="E358" s="9"/>
-      <c r="F358" s="20"/>
-      <c r="G358" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H358" s="37"/>
+      <c r="A358" s="53"/>
+      <c r="B358" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C358" s="55"/>
+      <c r="D358" s="54"/>
+      <c r="E358" s="56"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="11"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="38">
-        <v>45047</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D359" s="37"/>
+      <c r="A359" s="38"/>
+      <c r="B359" s="11"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="E359" s="9"/>
-      <c r="F359" s="20"/>
-      <c r="G359" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H359" s="37"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="38">
-        <v>45078</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D360" s="37"/>
+      <c r="A360" s="38"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D360" s="11"/>
       <c r="E360" s="9"/>
-      <c r="F360" s="20"/>
-      <c r="G360" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H360" s="37"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H360" s="54"/>
+      <c r="I360" s="56"/>
+      <c r="J360" s="54"/>
+      <c r="K360" s="58"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="38">
-        <v>45108</v>
-      </c>
+      <c r="A361" s="38"/>
       <c r="B361" s="20"/>
-      <c r="C361" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C361" s="13"/>
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H361" s="37"/>
       <c r="I361" s="9"/>
@@ -10595,19 +10583,15 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="38">
-        <v>45139</v>
-      </c>
+      <c r="A362" s="38"/>
       <c r="B362" s="20"/>
-      <c r="C362" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C362" s="13"/>
       <c r="D362" s="37"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H362" s="37"/>
       <c r="I362" s="9"/>
@@ -10615,19 +10599,15 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="38">
-        <v>45170</v>
-      </c>
+      <c r="A363" s="38"/>
       <c r="B363" s="20"/>
-      <c r="C363" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C363" s="13"/>
       <c r="D363" s="37"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H363" s="37"/>
       <c r="I363" s="9"/>
@@ -10635,19 +10615,15 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="38">
-        <v>45200</v>
-      </c>
+      <c r="A364" s="38"/>
       <c r="B364" s="20"/>
-      <c r="C364" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C364" s="13"/>
       <c r="D364" s="37"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H364" s="37"/>
       <c r="I364" s="9"/>
@@ -10655,19 +10631,15 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="38">
-        <v>45235</v>
-      </c>
+      <c r="A365" s="38"/>
       <c r="B365" s="20"/>
-      <c r="C365" s="13">
-        <v>0.20800000000000002</v>
-      </c>
+      <c r="C365" s="13"/>
       <c r="D365" s="37"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.20800000000000002</v>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H365" s="37"/>
       <c r="I365" s="9"/>
@@ -10675,53 +10647,52 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="65"/>
-      <c r="B366" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C366" s="67"/>
-      <c r="D366" s="66"/>
-      <c r="E366" s="68"/>
-      <c r="F366" s="11"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="11"/>
+      <c r="A366" s="38"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="37"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38"/>
-      <c r="B367" s="11"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="13"/>
-      <c r="D367" s="69" t="s">
-        <v>101</v>
-      </c>
+      <c r="D367" s="37"/>
       <c r="E367" s="9"/>
-      <c r="F367" s="11"/>
-      <c r="G367" s="13"/>
-      <c r="H367" s="69" t="s">
-        <v>102</v>
-      </c>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="37"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D368" s="11"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="37"/>
       <c r="E368" s="9"/>
-      <c r="F368" s="11"/>
-      <c r="G368" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="H368" s="66"/>
-      <c r="I368" s="68"/>
-      <c r="J368" s="66"/>
-      <c r="K368" s="70"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="37"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
@@ -10770,134 +10741,6 @@
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="38"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
-      <c r="D372" s="37"/>
-      <c r="E372" s="9"/>
-      <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H372" s="37"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="38"/>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="37"/>
-      <c r="E373" s="9"/>
-      <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H373" s="37"/>
-      <c r="I373" s="9"/>
-      <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="38"/>
-      <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="37"/>
-      <c r="E374" s="9"/>
-      <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H374" s="37"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="38"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="37"/>
-      <c r="E375" s="9"/>
-      <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H375" s="37"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="38"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
-      <c r="D376" s="37"/>
-      <c r="E376" s="9"/>
-      <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H376" s="37"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="38"/>
-      <c r="B377" s="20"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="37"/>
-      <c r="E377" s="9"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H377" s="37"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="20"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="38"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="37"/>
-      <c r="E378" s="9"/>
-      <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H378" s="37"/>
-      <c r="I378" s="9"/>
-      <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="38"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="37"/>
-      <c r="E379" s="9"/>
-      <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H379" s="37"/>
-      <c r="I379" s="9"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10944,8 +10787,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10963,17 +10806,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -11035,6 +10878,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -11048,14 +10894,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>512</v>
+      </c>
       <c r="C7" s="35">
         <v>1</v>
       </c>
